--- a/docs/Arbeistrapport.xlsx
+++ b/docs/Arbeistrapport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29523"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sluz-my.sharepoint.com/personal/zoe_bachmann_sluz_ch/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:40008_{C796C4DC-DFD7-476F-B1EE-250C84E160F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9D8D110-38DB-4DD6-8D4E-94BA469FC3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_Toc213317895" localSheetId="0">Tabelle1!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="36" uniqueCount="27">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="62" uniqueCount="35">
   <si>
     <t>Arbeistsrapport</t>
   </si>
@@ -107,15 +107,30 @@
     <t>240min</t>
   </si>
   <si>
+    <t>Entitiy Tests</t>
+  </si>
+  <si>
+    <t>Gian</t>
+  </si>
+  <si>
+    <t>31.11.2025</t>
+  </si>
+  <si>
+    <t>Benutzerhandbuch</t>
+  </si>
+  <si>
+    <t>40min</t>
+  </si>
+  <si>
     <t>Dokumentation</t>
   </si>
   <si>
+    <t>60min</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vorbereitung  </t>
   </si>
   <si>
-    <t>60min</t>
-  </si>
-  <si>
     <t>Weitere Dokumentation</t>
   </si>
   <si>
@@ -123,13 +138,22 @@
   </si>
   <si>
     <t xml:space="preserve">URL-Diagramme Schlussversion </t>
+  </si>
+  <si>
+    <t>Planer Tests</t>
+  </si>
+  <si>
+    <t>Stundenplaner Tests</t>
+  </si>
+  <si>
+    <t>Reflektion schrieben</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <start/>
       <end/>
@@ -284,11 +308,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <start/>
+      <end style="medium">
+        <color rgb="FFFFFFFF"/>
+      </end>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -323,34 +356,43 @@
     <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -371,7 +413,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -666,26 +708,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F11" activeCellId="1" sqref="F10 F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="17.45" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="29.45" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -705,33 +747,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:6" ht="28.5" customHeight="1">
+      <c r="A4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="20" t="d">
+      <c r="E4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="16" t="d">
         <v>2025-10-23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="13"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" thickBot="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" ht="44.1" thickBot="1">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -749,7 +791,7 @@
         <v>2025-10-31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="45.75">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -767,7 +809,7 @@
         <v>2025-10-31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="45.75">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -778,12 +820,14 @@
       <c r="D8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="F8" s="11" t="d">
         <v>2025-11-06</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="30.75">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -794,88 +838,177 @@
       <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="F9" s="11" t="d">
         <v>2025-11-13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="33" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22">
+        <v>120</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="33" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30.75">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="20" t="d">
+      <c r="C12" s="14"/>
+      <c r="D12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="16" t="d">
         <v>2025-10-31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
+    <row r="13" spans="1:6" ht="30.75">
+      <c r="A13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="45.75">
+      <c r="A14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="60.75">
+      <c r="A15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="11" t="d">
+        <v>2025-11-20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5">
+      <c r="A16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="11" t="d">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="11" t="d">
         <v>2025-11-20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+    <row r="17" spans="1:6" ht="30.75">
+      <c r="A17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="11" t="d">
+        <v>2025-11-20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30.75">
+      <c r="A18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="11" t="d">
+        <v>2025-11-24</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
+  <mergeCells count="10">
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Arbeistrapport.xlsx
+++ b/docs/Arbeistrapport.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sluz-my.sharepoint.com/personal/zoe_bachmann_sluz_ch/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9D8D110-38DB-4DD6-8D4E-94BA469FC3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{EF976761-68F1-4FC3-A092-27C764268A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc213317895" localSheetId="0">Tabelle1!$A$1</definedName>
+    <definedName name="_Toc215137077" localSheetId="0">Tabelle1!$A$1</definedName>
+    <definedName name="_Toc215165871" localSheetId="0">Tabelle1!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="62" uniqueCount="35">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="51" uniqueCount="35">
   <si>
     <t>Arbeistsrapport</t>
   </si>
@@ -68,9 +69,6 @@
     <t>Vollendungsdatum</t>
   </si>
   <si>
-    <t xml:space="preserve">URL-Nummer 1 Diagramm </t>
-  </si>
-  <si>
     <t>Zoe</t>
   </si>
   <si>
@@ -80,9 +78,6 @@
     <t>✔️</t>
   </si>
   <si>
-    <t>URL Diagramm Nummer 2</t>
-  </si>
-  <si>
     <t>30min</t>
   </si>
   <si>
@@ -98,62 +93,68 @@
     <t>Speicher Funktion mit JSON</t>
   </si>
   <si>
-    <t>Gian, Egor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithmus </t>
-  </si>
-  <si>
     <t>240min</t>
   </si>
   <si>
-    <t>Entitiy Tests</t>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>60min</t>
+  </si>
+  <si>
+    <t>Weitere Dokumentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL-Diagramme Schlussversion </t>
+  </si>
+  <si>
+    <t>URL-Nummer 1 Diagramm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Zoe</t>
+  </si>
+  <si>
+    <t>Diagramm Nummer 2</t>
+  </si>
+  <si>
+    <t>180min</t>
+  </si>
+  <si>
+    <t>Algorithmus</t>
+  </si>
+  <si>
+    <t>Vorbereitung</t>
+  </si>
+  <si>
+    <t>Zoe, Gian</t>
+  </si>
+  <si>
+    <t>420min</t>
+  </si>
+  <si>
+    <t>277.11.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Präsentation </t>
   </si>
   <si>
     <t>Gian</t>
   </si>
   <si>
-    <t>31.11.2025</t>
-  </si>
-  <si>
-    <t>Benutzerhandbuch</t>
-  </si>
-  <si>
-    <t>40min</t>
-  </si>
-  <si>
-    <t>Dokumentation</t>
-  </si>
-  <si>
-    <t>60min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vorbereitung  </t>
-  </si>
-  <si>
-    <t>Weitere Dokumentation</t>
-  </si>
-  <si>
-    <t>360min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL-Diagramme Schlussversion </t>
-  </si>
-  <si>
-    <t>Planer Tests</t>
-  </si>
-  <si>
-    <t>Stundenplaner Tests</t>
-  </si>
-  <si>
-    <t>Reflektion schrieben</t>
+    <t>UNIT-Tests</t>
+  </si>
+  <si>
+    <t>Gina</t>
+  </si>
+  <si>
+    <t>Wir haben sie gelöscht da sie Probleme verursachten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <start/>
       <end/>
@@ -308,20 +309,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <start/>
-      <end style="medium">
-        <color rgb="FFFFFFFF"/>
-      </end>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -329,18 +321,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -374,25 +354,31 @@
     <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -413,7 +399,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -708,308 +694,258 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B39756A-2D52-4B73-9544-0FB4D50C3427}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" activeCellId="1" sqref="F10 F11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="63" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.45" thickBot="1">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="29.45" thickBot="1">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F4" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A4" s="18" t="s">
+    <row r="5" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="d">
+        <v>2025-10-23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="12" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F6" s="7" t="d">
+        <v>2025-10-31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7" t="d">
+        <v>2025-10-31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7" t="d">
+        <v>2025-11-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7" t="d">
+        <v>2025-11-13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="12" t="d">
+        <v>2025-10-31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7" t="d">
+        <v>2025-11-20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="16" t="d">
-        <v>2025-10-23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" thickBot="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6" ht="44.1" thickBot="1">
-      <c r="A6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="11" t="d">
-        <v>2025-10-31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45.75">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="11" t="d">
-        <v>2025-10-31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45.75">
-      <c r="A8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7" t="d">
+        <v>2025-11-27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="11" t="d">
-        <v>2025-11-06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30.75">
-      <c r="A9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="11" t="d">
-        <v>2025-11-13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="33" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22">
-        <v>120</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="33" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30.75">
-      <c r="A12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="16" t="d">
-        <v>2025-10-31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30.75">
-      <c r="A13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6" ht="45.75">
-      <c r="A14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="60.75">
-      <c r="A15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="11" t="d">
-        <v>2025-11-20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5">
-      <c r="A16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="11" t="d">
-        <v>2025-11-20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30.75">
-      <c r="A17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="11" t="d">
-        <v>2025-11-20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30.75">
-      <c r="A18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="11" t="d">
-        <v>2025-11-24</v>
-      </c>
+      <c r="E15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7" t="d">
+        <v>2025-11-27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="16"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="16"/>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
+  <mergeCells count="5">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>